--- a/classification/droptc/sentence/bert-base-uncased/freeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/52680723/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8116071820259094</v>
+        <v>0.9515532255172729</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6522717475891113</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4606173634529114</v>
+        <v>0.5696672201156616</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5972764492034912</v>
+        <v>0.5295193195343018</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6991677284240723</v>
+        <v>0.9922595620155334</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6903009414672852</v>
+        <v>0.913709282875061</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7389933466911316</v>
+        <v>0.9883542060852051</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4014063775539398</v>
+        <v>0.9946362376213074</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8291134238243103</v>
+        <v>0.9883542060852051</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4318148195743561</v>
+        <v>0.9531815648078918</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8089233040809631</v>
+        <v>0.9702838063240051</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8440978527069092</v>
+        <v>0.9736801385879517</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6903789639472961</v>
+        <v>0.9625495672225952</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2897556722164154</v>
+        <v>0.6962801814079285</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.567487895488739</v>
+        <v>0.8889461755752563</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8735074400901794</v>
+        <v>0.9665150046348572</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8059424757957458</v>
+        <v>0.5864835381507874</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5972764492034912</v>
+        <v>0.9925685524940491</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5953093767166138</v>
+        <v>0.9317349195480347</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7228419780731201</v>
+        <v>0.9856821894645691</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7715145349502563</v>
+        <v>0.9807285666465759</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7773563861846924</v>
+        <v>0.9687582850456238</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8644449710845947</v>
+        <v>0.9364686608314514</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4425653219223022</v>
+        <v>0.5469908118247986</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5643982887268066</v>
+        <v>0.3628596365451813</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.8444581031799316</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.584679901599884</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4207050502300262</v>
+        <v>0.7779666185379028</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7354432940483093</v>
+        <v>0.9364349842071533</v>
       </c>
     </row>
     <row r="31">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5856649279594421</v>
+        <v>0.9529482126235962</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4064964056015015</v>
+        <v>0.6629951596260071</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4243898987770081</v>
+        <v>0.6145287752151489</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6959683895111084</v>
+        <v>0.7141001224517822</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5674369931221008</v>
+        <v>0.9550807476043701</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6708480715751648</v>
+        <v>0.9586536884307861</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4244554936885834</v>
+        <v>0.8899129033088684</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8976676464080811</v>
+        <v>0.8490263819694519</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8021554350852966</v>
+        <v>0.8100636005401611</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3225916624069214</v>
+        <v>0.4133232235908508</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7061591148376465</v>
+        <v>0.9779863953590393</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7696493268013</v>
+        <v>0.7858856916427612</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8474517464637756</v>
+        <v>0.669522225856781</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.9803702831268311</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.601980984210968</v>
+        <v>0.8390504121780396</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8720768094062805</v>
+        <v>0.858635425567627</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>SurroundingEnvironment</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5086753368377686</v>
+        <v>0.4091125130653381</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8685510158538818</v>
+        <v>0.918174147605896</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.865459680557251</v>
+        <v>0.9961244463920593</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.924008846282959</v>
+        <v>0.8740817308425903</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5403758883476257</v>
+        <v>0.299564391374588</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3697601854801178</v>
+        <v>0.9196368455886841</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3353559970855713</v>
+        <v>0.8740817308425903</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8121151924133301</v>
+        <v>0.5265029668807983</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6752480864524841</v>
+        <v>0.9908705353736877</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7072741389274597</v>
+        <v>0.9981082677841187</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3361369073390961</v>
+        <v>0.9983445405960083</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4241483807563782</v>
+        <v>0.8738828897476196</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3577221930027008</v>
+        <v>0.9064228534698486</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5840315222740173</v>
+        <v>0.962857186794281</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7115737795829773</v>
+        <v>0.8589848279953003</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6945503354072571</v>
+        <v>0.9923600554466248</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5589255690574646</v>
+        <v>0.7102190256118774</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7950921058654785</v>
+        <v>0.4273382127285004</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7105225324630737</v>
+        <v>0.8837210536003113</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7243857383728027</v>
+        <v>0.8837210536003113</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7553178668022156</v>
+        <v>0.4962288737297058</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6485684514045715</v>
+        <v>0.8837210536003113</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7536770701408386</v>
+        <v>0.5413225889205933</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5589727759361267</v>
+        <v>0.9722191095352173</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6372998356819153</v>
+        <v>0.426911324262619</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3566742241382599</v>
+        <v>0.9747289419174194</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5839390158653259</v>
+        <v>0.9773823618888855</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9223616719245911</v>
+        <v>0.8912946581840515</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6605408191680908</v>
+        <v>0.6585080027580261</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8173704147338867</v>
+        <v>0.9773823618888855</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4332982897758484</v>
+        <v>0.9475065469741821</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4676843881607056</v>
+        <v>0.9773823618888855</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6202131509780884</v>
+        <v>0.9914968609809875</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4064964056015015</v>
+        <v>0.9300299882888794</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6202131509780884</v>
+        <v>0.6573987603187561</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4064964056015015</v>
+        <v>0.9300299882888794</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5493578910827637</v>
+        <v>0.9529115557670593</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8365181088447571</v>
+        <v>0.9529115557670593</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3954534232616425</v>
+        <v>0.9918228983879089</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7158692479133606</v>
+        <v>0.831045389175415</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9575068950653076</v>
+        <v>0.8514372706413269</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3433684110641479</v>
+        <v>0.9196390509605408</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.9833686947822571</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.662259578704834</v>
+        <v>0.961470365524292</v>
       </c>
     </row>
     <row r="91">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.320846289396286</v>
+        <v>0.9643664360046387</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3626301884651184</v>
+        <v>0.9671740531921387</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5880982279777527</v>
+        <v>0.9727201461791992</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.683309018611908</v>
+        <v>0.9769888520240784</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5716974139213562</v>
+        <v>0.9707175493240356</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4528572559356689</v>
+        <v>0.5602535605430603</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.3526921570301056</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6211387515068054</v>
+        <v>0.9804865717887878</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4014063775539398</v>
+        <v>0.3708557784557343</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5579075217247009</v>
+        <v>0.9461081027984619</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.320846289396286</v>
+        <v>0.9586454629898071</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6546369194984436</v>
+        <v>0.3235970735549927</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.785031259059906</v>
+        <v>0.9845741391181946</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7011762261390686</v>
+        <v>0.9331024885177612</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7204825282096863</v>
+        <v>0.9395622611045837</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6278329491615295</v>
+        <v>0.5490528345108032</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7355711460113525</v>
+        <v>0.4874992370605469</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7027583718299866</v>
+        <v>0.6665381789207458</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3153334259986877</v>
+        <v>0.7447137832641602</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8398346900939941</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8938534259796143</v>
+        <v>0.5120487809181213</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3406329154968262</v>
+        <v>0.4637719094753265</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3954534232616425</v>
+        <v>0.9096705317497253</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.8142251968383789</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.4690355956554413</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7116944789886475</v>
+        <v>0.7966621518135071</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3954534232616425</v>
+        <v>0.9533771276473999</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7528420686721802</v>
+        <v>0.4653974175453186</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8692876100540161</v>
+        <v>0.916459321975708</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5406211018562317</v>
+        <v>0.9230696558952332</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7150366902351379</v>
+        <v>0.9928454756736755</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8276936411857605</v>
+        <v>0.9230696558952332</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5967981815338135</v>
+        <v>0.9928454756736755</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4473150968551636</v>
+        <v>0.9230696558952332</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8422581553459167</v>
+        <v>0.9988530874252319</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.633219838142395</v>
+        <v>0.6217180490493774</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6673687696456909</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.650351881980896</v>
+        <v>0.9458948373794556</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6629888415336609</v>
+        <v>0.9230039715766907</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7638354897499084</v>
+        <v>0.989984393119812</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6202131509780884</v>
+        <v>0.4777055680751801</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4558697938919067</v>
+        <v>0.9939066767692566</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7497985363006592</v>
+        <v>0.4570634961128235</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6772162914276123</v>
+        <v>0.8624361753463745</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8202024102210999</v>
+        <v>0.4574230909347534</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6432176828384399</v>
+        <v>0.9952319264411926</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4098192453384399</v>
+        <v>0.9518188834190369</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6868005394935608</v>
+        <v>0.9962963461875916</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6217995882034302</v>
+        <v>0.955072820186615</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7296808958053589</v>
+        <v>0.8681163191795349</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4402554631233215</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.881514847278595</v>
+        <v>0.7214904427528381</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6885640025138855</v>
+        <v>0.9834866523742676</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3397016823291779</v>
+        <v>0.7214904427528381</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3689642250537872</v>
+        <v>0.9687636494636536</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6088199019432068</v>
+        <v>0.5413225889205933</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8644449710845947</v>
+        <v>0.9698152542114258</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.311285674571991</v>
+        <v>0.5514395236968994</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7147452235221863</v>
+        <v>0.3657205104827881</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6125653386116028</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4014063775539398</v>
+        <v>0.5850979685783386</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5033007860183716</v>
+        <v>0.9896728992462158</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7442824244499207</v>
+        <v>0.7675136923789978</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4861733019351959</v>
+        <v>0.9809618592262268</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8098798990249634</v>
+        <v>0.6941775679588318</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7273274660110474</v>
+        <v>0.9950959086418152</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.3414435982704163</v>
+        <v>0.951047956943512</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3569336235523224</v>
+        <v>0.9983280301094055</v>
       </c>
     </row>
     <row r="160">
@@ -4907,14 +4907,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.3346993923187256</v>
+        <v>0.7942479252815247</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3397016823291779</v>
+        <v>0.9123220443725586</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6876288652420044</v>
+        <v>0.8296810984611511</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7880277037620544</v>
+        <v>0.4377151131629944</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5579162836074829</v>
+        <v>0.7666379809379578</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6402104496955872</v>
+        <v>0.9080528616905212</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7545974850654602</v>
+        <v>0.9025159478187561</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9276224970817566</v>
+        <v>0.4320734739303589</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.571532666683197</v>
+        <v>0.4332833290100098</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4473150968551636</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5671489238739014</v>
+        <v>0.4320734739303589</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6764701008796692</v>
+        <v>0.4482237696647644</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8373316526412964</v>
+        <v>0.9959251880645752</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8041889071464539</v>
+        <v>0.9361355900764465</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7448161244392395</v>
+        <v>0.9630978107452393</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7365494966506958</v>
+        <v>0.9361355900764465</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6699621677398682</v>
+        <v>0.9361355900764465</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6439068913459778</v>
+        <v>0.9630978107452393</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3353559970855713</v>
+        <v>0.9968428611755371</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5658791661262512</v>
+        <v>0.9965458512306213</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.6447740793228149</v>
+        <v>0.8666535019874573</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7833266258239746</v>
+        <v>0.548247754573822</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9276224970817566</v>
+        <v>0.9882809519767761</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.6842635869979858</v>
+        <v>0.3647300899028778</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8330677151679993</v>
+        <v>0.98415607213974</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6848063468933105</v>
+        <v>0.8956696391105652</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.2865009605884552</v>
+        <v>0.9188244342803955</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.806876003742218</v>
+        <v>0.9623537063598633</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.7950100898742676</v>
+        <v>0.9772043824195862</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7829942107200623</v>
+        <v>0.8119949698448181</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.7679586410522461</v>
+        <v>0.9092215299606323</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4369502663612366</v>
+        <v>0.566372275352478</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3406276702880859</v>
+        <v>0.9325982928276062</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7243857383728027</v>
+        <v>0.974797248840332</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5431019067764282</v>
+        <v>0.7860668897628784</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.4892052710056305</v>
+        <v>0.6233760118484497</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.3577221930027008</v>
+        <v>0.9917222857475281</v>
       </c>
     </row>
     <row r="197">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6584002375602722</v>
+        <v>0.9762962460517883</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5957551598548889</v>
+        <v>0.9171328544616699</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5634781718254089</v>
+        <v>0.9926665425300598</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4744071066379547</v>
+        <v>0.6171533465385437</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.6548449993133545</v>
+        <v>0.9863759875297546</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.580607533454895</v>
+        <v>0.9769535660743713</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9123375415802002</v>
+        <v>0.8324465751647949</v>
       </c>
     </row>
     <row r="204">
@@ -6139,14 +6139,14 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6043503880500793</v>
+        <v>0.2954682409763336</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.6165962219238281</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7592606544494629</v>
+        <v>0.99793940782547</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4195866584777832</v>
+        <v>0.5169198513031006</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8902285695075989</v>
+        <v>0.992436945438385</v>
       </c>
     </row>
     <row r="209">
@@ -6279,14 +6279,14 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8089780211448669</v>
+        <v>0.4185305237770081</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6521279811859131</v>
+        <v>0.9936397671699524</v>
       </c>
     </row>
   </sheetData>
